--- a/接口文档/前台/用户相关接口.xlsx
+++ b/接口文档/前台/用户相关接口.xlsx
@@ -34,7 +34,7 @@
     <t>根路径</t>
   </si>
   <si>
-    <t>http://www.xiaomo.info</t>
+    <t>http://localhost:8080</t>
   </si>
   <si>
     <t>用户|登陆</t>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户</t>
     </r>
     <r>
@@ -162,6 +169,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户</t>
     </r>
     <r>
@@ -197,6 +210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户</t>
     </r>
     <r>
@@ -223,6 +242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>email</t>
     </r>
     <r>
@@ -256,13 +281,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -343,7 +368,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,28 +420,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -387,14 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,10 +449,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,16 +465,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,46 +495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="13"/>
@@ -521,25 +530,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,157 +674,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +739,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -745,20 +774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,23 +807,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,164 +836,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2251,7 +2260,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
@@ -2553,7 +2562,7 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.xiaomo.info"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080" tooltip="http://localhost:8080"/>
     <hyperlink ref="D3" r:id="rId2" display="http://www.xiaomo.info/api/web/user/login/xiaomo/xiaomo"/>
     <hyperlink ref="D4" r:id="rId3" display="http://www.xiaomo.info/api/web/user/register?参数"/>
     <hyperlink ref="D5" r:id="rId4" display="http://www.xiaomo.info/api/web/user/findById/{id}" tooltip="http://www.xiaomo.info/api/web/user/findById/{id}"/>

--- a/接口文档/前台/用户相关接口.xlsx
+++ b/接口文档/前台/用户相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>模块</t>
   </si>
@@ -72,18 +72,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http://www.xiaomo.info/api/web/user/login/xiaomo/xiaomo</t>
-    </r>
-  </si>
-  <si>
     <t>用户登录</t>
   </si>
   <si>
@@ -95,18 +83,6 @@
   <si>
     <t>userName,nickName,password,email,imgUrl,
 gender(0保密，1男，2女),phone,address</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Avenir Next"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http://www.xiaomo.info/api/web/user/register?参数</t>
-    </r>
   </si>
   <si>
     <t>用户注册</t>
@@ -150,9 +126,6 @@
     <t>/{id}</t>
   </si>
   <si>
-    <t>http://www.xiaomo.info/api/web/user/findById/{id}</t>
-  </si>
-  <si>
     <t>暂不用</t>
   </si>
   <si>
@@ -160,9 +133,6 @@
   </si>
   <si>
     <t>/api/web/user/update</t>
-  </si>
-  <si>
-    <t>http://www.xiaomo.info/api/web/user/update?参数</t>
   </si>
   <si>
     <t>修改个人信息</t>
@@ -203,9 +173,6 @@
     <t>/{email}</t>
   </si>
   <si>
-    <t>http://www.xiaomo.info/api/web/user/findByEmail/{id}</t>
-  </si>
-  <si>
     <t>ajax判断用户名是否可用</t>
   </si>
   <si>
@@ -270,9 +237,6 @@
     </r>
   </si>
   <si>
-    <t>http://www.xiaomo.info/api/web/user//validateEmail?参数</t>
-  </si>
-  <si>
     <t>验证邮箱</t>
   </si>
 </sst>
@@ -281,13 +245,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -367,13 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -396,6 +353,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,13 +451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -419,89 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="13"/>
-      <name val="Avenir Next"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <strike/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -530,187 +487,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,11 +707,63 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,65 +783,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,148 +798,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2260,7 +2217,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
@@ -2311,96 +2268,84 @@
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" ht="42.8" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:5">
       <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:5">
       <c r="A8" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D8" s="21"/>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:5">
@@ -2563,12 +2508,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080" tooltip="http://localhost:8080"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://www.xiaomo.info/api/web/user/login/xiaomo/xiaomo"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://www.xiaomo.info/api/web/user/register?参数"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://www.xiaomo.info/api/web/user/findById/{id}" tooltip="http://www.xiaomo.info/api/web/user/findById/{id}"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://www.xiaomo.info/api/web/user/update?参数" tooltip="http://www.xiaomo.info/api/web/user/update?参数"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://www.xiaomo.info/api/web/user/findByEmail/{id}"/>
-    <hyperlink ref="D8" r:id="rId7" display="http://www.xiaomo.info/api/web/user//validateEmail?参数" tooltip="http://www.xiaomo.info/api/web/user//validateEmail?参数"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/接口文档/前台/用户相关接口.xlsx
+++ b/接口文档/前台/用户相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>模块</t>
   </si>
@@ -81,8 +81,21 @@
     <t>/api/web/user/register</t>
   </si>
   <si>
-    <t>userName,nickName,password,email,imgUrl,
-gender(0保密，1男，2女),phone,address</t>
+    <t>email,password</t>
+  </si>
+  <si>
+    <r>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为帐号名登录</t>
+    </r>
   </si>
   <si>
     <t>用户注册</t>
@@ -135,6 +148,10 @@
     <t>/api/web/user/update</t>
   </si>
   <si>
+    <t>userName,nickName,password,email,imgUrl,
+gender(0保密，1男，2女),phone,address</t>
+  </si>
+  <si>
     <t>修改个人信息</t>
   </si>
   <si>
@@ -245,11 +262,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -325,7 +342,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +385,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
@@ -368,38 +460,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,52 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -487,187 +504,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,24 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,17 +728,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,15 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,153 +786,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,6 +988,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,9 +1023,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2283,69 +2300,71 @@
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A7" s="16" t="s">
-        <v>22</v>
+      <c r="A7" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A8" s="19" t="s">
-        <v>26</v>
+      <c r="A8" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:5">

--- a/接口文档/前台/用户相关接口.xlsx
+++ b/接口文档/前台/用户相关接口.xlsx
@@ -85,6 +85,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>email</t>
     </r>
     <r>
@@ -187,7 +193,7 @@
     <t>/api/web/user/findByEmail</t>
   </si>
   <si>
-    <t>/{email}</t>
+    <t>email</t>
   </si>
   <si>
     <t>ajax判断用户名是否可用</t>
@@ -262,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="29">
@@ -355,6 +361,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -364,7 +415,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -372,16 +423,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,50 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +445,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,22 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -504,109 +510,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,73 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +719,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -732,46 +792,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,168 +816,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2234,7 +2240,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>

--- a/接口文档/前台/用户相关接口.xlsx
+++ b/接口文档/前台/用户相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>模块</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>参数</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>备注</t>
@@ -70,6 +73,9 @@
       </rPr>
       <t>password</t>
     </r>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>用户登录</t>
@@ -145,6 +151,9 @@
     <t>/{id}</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
     <t>暂不用</t>
   </si>
   <si>
@@ -268,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="29">
@@ -348,16 +357,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,16 +424,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,69 +478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,21 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -510,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,17 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,15 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -769,6 +763,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,26 +820,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -821,148 +830,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2237,23 +2246,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.5047619047619" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7142857142857" style="2" customWidth="1"/>
-    <col min="6" max="256" width="8.17142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="257" width="8.17142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:5">
+    <row r="1" ht="31" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2266,270 +2276,314 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="22.6" customHeight="1" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="22.6" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="22.85" customHeight="1" spans="1:5">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="22.85" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="42.8" customHeight="1" spans="1:5">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="42.8" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="22.75" customHeight="1" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="22.75" customHeight="1" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="22.75" customHeight="1" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="22.75" customHeight="1" spans="1:6">
       <c r="A8" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="22.75" customHeight="1" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="22.75" customHeight="1" spans="1:6">
       <c r="A9" s="22"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1" spans="1:6">
       <c r="A10" s="23"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1" spans="1:6">
       <c r="A11" s="22"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1" spans="1:6">
       <c r="A12" s="23"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1" spans="1:6">
       <c r="A13" s="22"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1" spans="1:6">
       <c r="A14" s="23"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1" spans="1:6">
       <c r="A15" s="22"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1" spans="1:6">
       <c r="A16" s="23"/>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1" spans="1:6">
       <c r="A17" s="22"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1" spans="1:6">
       <c r="A18" s="23"/>
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1" spans="1:6">
       <c r="A19" s="22"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1" spans="1:6">
       <c r="A20" s="23"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E20" s="8"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" ht="22.75" customHeight="1" spans="1:6">
       <c r="A21" s="22"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="22.75" customHeight="1" spans="1:6">
       <c r="A22" s="23"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" ht="22.75" customHeight="1" spans="1:6">
       <c r="A23" s="22"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="22.75" customHeight="1" spans="1:6">
       <c r="A24" s="23"/>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E24" s="8"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" ht="22.75" customHeight="1" spans="1:6">
       <c r="A25" s="22"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" ht="22.75" customHeight="1" spans="1:6">
       <c r="A26" s="23"/>
       <c r="B26" s="5"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" ht="22.75" customHeight="1" spans="1:6">
       <c r="A27" s="22"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" ht="22.75" customHeight="1" spans="1:6">
       <c r="A28" s="23"/>
       <c r="B28" s="5"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1" spans="1:5">
+      <c r="E28" s="8"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" ht="22.75" customHeight="1" spans="1:6">
       <c r="A29" s="22"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:5">
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:6">
       <c r="A30" s="23"/>
       <c r="B30" s="5"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080" tooltip="http://localhost:8080"/>
